--- a/Data/Output/Unicorn_Names.xlsx
+++ b/Data/Output/Unicorn_Names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.chamerski\Desktop\Unicorn_Name_Generator\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16ED27DA-EFD9-4046-81A4-55DCA1B22C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0955D7-629D-460F-B9DD-78AEFE7FE9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{7FA43726-B253-4A63-B2C3-57B51B662B8D}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{5AD6F6E5-57E3-4C25-A1B5-A0E4866966D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
   <si>
     <t>Imię</t>
   </si>
@@ -48,154 +48,142 @@
     <t>M</t>
   </si>
   <si>
-    <t>November</t>
-  </si>
-  <si>
-    <t>Radiant Starshine-Blazer</t>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Radiant Snowflake-Dream</t>
   </si>
   <si>
     <t>Jakub</t>
   </si>
   <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>Sunbeam Raindrop-Mist</t>
+  </si>
+  <si>
+    <t>Zuzanna</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
     <t>August</t>
   </si>
   <si>
-    <t>Sunbeam Summer-Dancer</t>
-  </si>
-  <si>
-    <t>Zuzanna</t>
-  </si>
-  <si>
-    <t>K</t>
+    <t>Bumblebee Summer-Dancer</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>Sunbeam Moon-Clover</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Sunbeam Nimble-Flower</t>
+  </si>
+  <si>
+    <t>Szymon</t>
+  </si>
+  <si>
+    <t>Fancy Summer-Dancer</t>
+  </si>
+  <si>
+    <t>Maja</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>Delightful Crystal-Dazzler</t>
+  </si>
+  <si>
+    <t>Zofia</t>
+  </si>
+  <si>
+    <t>Bumblebee Nimble-Flower</t>
+  </si>
+  <si>
+    <t>Hanna</t>
   </si>
   <si>
     <t>March</t>
   </si>
   <si>
-    <t>Bumblebee Glitter-Blossom</t>
-  </si>
-  <si>
-    <t>Julia</t>
+    <t>Glimmer Glitter-Blossom</t>
+  </si>
+  <si>
+    <t>Lena</t>
+  </si>
+  <si>
+    <t>Optimistic Glitter-Blossom</t>
+  </si>
+  <si>
+    <t>Aleksander</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>Radiant Feather-Wind</t>
+  </si>
+  <si>
+    <t>Franciszek</t>
+  </si>
+  <si>
+    <t>Whirlwind Feather-Wind</t>
+  </si>
+  <si>
+    <t>Filip</t>
   </si>
   <si>
     <t>February</t>
   </si>
   <si>
-    <t>Sunbeam Twinkle-Sweet</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>Sunbeam Snowflake-Dream</t>
-  </si>
-  <si>
-    <t>Szymon</t>
-  </si>
-  <si>
-    <t>Fancy Twinkle-Sweet</t>
-  </si>
-  <si>
-    <t>Maja</t>
-  </si>
-  <si>
-    <t>Delightful Summer-Dancer</t>
-  </si>
-  <si>
-    <t>Zofia</t>
-  </si>
-  <si>
-    <t>October</t>
-  </si>
-  <si>
-    <t>Bumblebee Feather-Wind</t>
-  </si>
-  <si>
-    <t>Hanna</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>Glimmer Cloud-Jumper</t>
-  </si>
-  <si>
-    <t>Lena</t>
-  </si>
-  <si>
-    <t>Optimistic Snowflake-Dream</t>
-  </si>
-  <si>
-    <t>Aleksander</t>
-  </si>
-  <si>
-    <t>Radiant Snowflake-Dream</t>
-  </si>
-  <si>
-    <t>Franciszek</t>
-  </si>
-  <si>
-    <t>Whirlwind Glitter-Blossom</t>
-  </si>
-  <si>
-    <t>Filip</t>
-  </si>
-  <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>Whirlwind Moon-Clover</t>
+    <t>Whirlwind Twinkle-Sweet</t>
   </si>
   <si>
     <t>Mikołaj</t>
   </si>
   <si>
+    <t>Delightful Glitter-Blossom</t>
+  </si>
+  <si>
     <t>Wojciech</t>
   </si>
   <si>
-    <t>January</t>
-  </si>
-  <si>
-    <t>Brilliant Crystal-Dazzler</t>
+    <t>Brilliant Twinkle-Sweet</t>
   </si>
   <si>
     <t>Alicja</t>
   </si>
   <si>
-    <t>Radiant Cloud-Jumper</t>
-  </si>
-  <si>
     <t>Maria</t>
   </si>
   <si>
-    <t>July</t>
-  </si>
-  <si>
-    <t>Delightful Raindrop-Mist</t>
-  </si>
-  <si>
     <t>Kacper</t>
   </si>
   <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>Emerald Nimble-Flower</t>
+    <t>Emerald Crystal-Dazzler</t>
   </si>
   <si>
     <t>Amelia</t>
   </si>
   <si>
-    <t>Radiant Glitter-Blossom</t>
-  </si>
-  <si>
     <t>Oliwia</t>
   </si>
   <si>
-    <t>Breezy Crystal-Dazzler</t>
+    <t>Breezy Moon-Clover</t>
   </si>
 </sst>
 </file>
@@ -547,12 +535,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07FE890-8110-4614-9343-9707FA538D95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CED3812-D6EA-4940-80DF-C34466EFA409}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -667,7 +662,7 @@
         <v>8234</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
         <v>23</v>
@@ -684,15 +679,15 @@
         <v>8033</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -701,7 +696,7 @@
         <v>7928</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
@@ -735,7 +730,7 @@
         <v>7650</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
         <v>33</v>
@@ -752,15 +747,15 @@
         <v>7324</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -769,15 +764,15 @@
         <v>7094</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -786,15 +781,15 @@
         <v>6407</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -803,15 +798,15 @@
         <v>6008</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -820,15 +815,15 @@
         <v>5862</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -837,10 +832,10 @@
         <v>5759</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -854,15 +849,15 @@
         <v>5442</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -871,15 +866,15 @@
         <v>5437</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
         <v>13</v>
@@ -888,15 +883,15 @@
         <v>5310</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
@@ -905,10 +900,10 @@
         <v>5058</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Output/Unicorn_Names.xlsx
+++ b/Data/Output/Unicorn_Names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.chamerski\Desktop\Unicorn_Name_Generator\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0955D7-629D-460F-B9DD-78AEFE7FE9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC46A7B3-5240-472A-915A-6231D8B69185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{5AD6F6E5-57E3-4C25-A1B5-A0E4866966D8}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{D74F9D2E-C8EA-4C83-A81B-92791A813D3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
   <si>
     <t>Imię</t>
   </si>
@@ -48,121 +48,118 @@
     <t>M</t>
   </si>
   <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>Radiant Twinkle-Sweet</t>
+  </si>
+  <si>
+    <t>Jakub</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>Sunbeam Moon-Clover</t>
+  </si>
+  <si>
+    <t>Zuzanna</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>Bumblebee Cloud-Jumper</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Sunbeam Cloud-Jumper</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>Sunbeam Feather-Wind</t>
+  </si>
+  <si>
+    <t>Szymon</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>Fancy Summer-Dancer</t>
+  </si>
+  <si>
+    <t>Maja</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>Delightful Starshine-Blazer</t>
+  </si>
+  <si>
+    <t>Zofia</t>
+  </si>
+  <si>
+    <t>Bumblebee Summer-Dancer</t>
+  </si>
+  <si>
+    <t>Hanna</t>
+  </si>
+  <si>
+    <t>Glimmer Cloud-Jumper</t>
+  </si>
+  <si>
+    <t>Lena</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>Optimistic Raindrop-Mist</t>
+  </si>
+  <si>
+    <t>Aleksander</t>
+  </si>
+  <si>
+    <t>Franciszek</t>
+  </si>
+  <si>
+    <t>Whirlwind Summer-Dancer</t>
+  </si>
+  <si>
+    <t>Filip</t>
+  </si>
+  <si>
+    <t>Whirlwind Twinkle-Sweet</t>
+  </si>
+  <si>
+    <t>Mikołaj</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Delightful Nimble-Flower</t>
+  </si>
+  <si>
+    <t>Wojciech</t>
+  </si>
+  <si>
     <t>May</t>
   </si>
   <si>
-    <t>Radiant Snowflake-Dream</t>
-  </si>
-  <si>
-    <t>Jakub</t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
-    <t>Sunbeam Raindrop-Mist</t>
-  </si>
-  <si>
-    <t>Zuzanna</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>August</t>
-  </si>
-  <si>
-    <t>Bumblebee Summer-Dancer</t>
-  </si>
-  <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>Sunbeam Moon-Clover</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>Sunbeam Nimble-Flower</t>
-  </si>
-  <si>
-    <t>Szymon</t>
-  </si>
-  <si>
-    <t>Fancy Summer-Dancer</t>
-  </si>
-  <si>
-    <t>Maja</t>
-  </si>
-  <si>
-    <t>January</t>
-  </si>
-  <si>
-    <t>Delightful Crystal-Dazzler</t>
-  </si>
-  <si>
-    <t>Zofia</t>
-  </si>
-  <si>
-    <t>Bumblebee Nimble-Flower</t>
-  </si>
-  <si>
-    <t>Hanna</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>Glimmer Glitter-Blossom</t>
-  </si>
-  <si>
-    <t>Lena</t>
-  </si>
-  <si>
-    <t>Optimistic Glitter-Blossom</t>
-  </si>
-  <si>
-    <t>Aleksander</t>
-  </si>
-  <si>
-    <t>October</t>
-  </si>
-  <si>
-    <t>Radiant Feather-Wind</t>
-  </si>
-  <si>
-    <t>Franciszek</t>
-  </si>
-  <si>
-    <t>Whirlwind Feather-Wind</t>
-  </si>
-  <si>
-    <t>Filip</t>
-  </si>
-  <si>
-    <t>February</t>
-  </si>
-  <si>
-    <t>Whirlwind Twinkle-Sweet</t>
-  </si>
-  <si>
-    <t>Mikołaj</t>
-  </si>
-  <si>
-    <t>Delightful Glitter-Blossom</t>
-  </si>
-  <si>
-    <t>Wojciech</t>
-  </si>
-  <si>
-    <t>Brilliant Twinkle-Sweet</t>
+    <t>Brilliant Snowflake-Dream</t>
   </si>
   <si>
     <t>Alicja</t>
@@ -171,19 +168,25 @@
     <t>Maria</t>
   </si>
   <si>
+    <t>Delightful Cloud-Jumper</t>
+  </si>
+  <si>
     <t>Kacper</t>
   </si>
   <si>
-    <t>Emerald Crystal-Dazzler</t>
+    <t>Emerald Twinkle-Sweet</t>
   </si>
   <si>
     <t>Amelia</t>
   </si>
   <si>
+    <t>Radiant Summer-Dancer</t>
+  </si>
+  <si>
     <t>Oliwia</t>
   </si>
   <si>
-    <t>Breezy Moon-Clover</t>
+    <t>Breezy Twinkle-Sweet</t>
   </si>
 </sst>
 </file>
@@ -535,7 +538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CED3812-D6EA-4940-80DF-C34466EFA409}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E2179D-B3D4-4D40-840D-813BF2A6671D}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -628,15 +631,15 @@
         <v>8468</v>
       </c>
       <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -645,15 +648,15 @@
         <v>8457</v>
       </c>
       <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
         <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -662,7 +665,7 @@
         <v>8234</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
         <v>23</v>
@@ -696,7 +699,7 @@
         <v>7928</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
@@ -713,15 +716,15 @@
         <v>7723</v>
       </c>
       <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
         <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -730,7 +733,7 @@
         <v>7650</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
         <v>33</v>
@@ -747,15 +750,15 @@
         <v>7324</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -764,15 +767,15 @@
         <v>7094</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -781,15 +784,15 @@
         <v>6407</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -798,15 +801,15 @@
         <v>6008</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -815,15 +818,15 @@
         <v>5862</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -832,15 +835,15 @@
         <v>5759</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -849,10 +852,10 @@
         <v>5442</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -866,7 +869,7 @@
         <v>5437</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
         <v>49</v>
@@ -883,15 +886,15 @@
         <v>5310</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
@@ -900,10 +903,10 @@
         <v>5058</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
